--- a/中期_简单回归/data/09-16.xlsx
+++ b/中期_简单回归/data/09-16.xlsx
@@ -300,14 +300,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,11 +355,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,9 +402,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,28 +426,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,41 +446,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,30 +494,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,13 +556,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,13 +592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,25 +616,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,43 +664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,43 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,6 +719,15 @@
       <top/>
       <bottom style="medium">
         <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,21 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -787,18 +773,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,13 +797,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,137 +838,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1015,7 +1007,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1335,10 +1326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U119"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:T119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1346,6 +1337,7 @@
     <col min="8" max="11" width="9" style="1"/>
     <col min="12" max="12" width="9.375"/>
     <col min="16" max="16" width="12.625"/>
+    <col min="22" max="22" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" ht="51.75" spans="1:20">
@@ -1358,13 +1350,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1421,13 +1413,13 @@
         <v>0.214183333333333</v>
       </c>
       <c r="D2" s="6">
-        <v>1.02275545</v>
+        <v>1.04334431818182</v>
       </c>
       <c r="E2" s="6">
         <v>0.371363636363636</v>
       </c>
       <c r="F2" s="6">
-        <v>0.119</v>
+        <v>0.118064516129032</v>
       </c>
       <c r="G2" s="1">
         <v>51.7</v>
@@ -1472,7 +1464,7 @@
         <v>1.4887347826087</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:21">
+    <row r="3" ht="17.25" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1483,13 +1475,13 @@
         <v>0.207845</v>
       </c>
       <c r="D3" s="6">
-        <v>1.04334431818182</v>
+        <v>1.04712352631579</v>
       </c>
       <c r="E3" s="6">
         <v>0.34578947368421</v>
       </c>
       <c r="F3" s="6">
-        <v>0.118064516129032</v>
+        <v>0.11</v>
       </c>
       <c r="G3" s="1">
         <v>53.1</v>
@@ -1533,7 +1525,6 @@
       <c r="T3" s="6">
         <v>1.58457</v>
       </c>
-      <c r="U3" s="16"/>
     </row>
     <row r="4" ht="17.25" spans="1:20">
       <c r="A4" s="1" t="s">
@@ -1546,13 +1537,13 @@
         <v>0.208094</v>
       </c>
       <c r="D4" s="6">
-        <v>1.04712352631579</v>
+        <v>1.02145063157895</v>
       </c>
       <c r="E4" s="6">
         <v>0.345789473684211</v>
       </c>
       <c r="F4" s="6">
-        <v>0.11</v>
+        <v>0.126428571428571</v>
       </c>
       <c r="G4" s="1">
         <v>53.2</v>
@@ -1608,13 +1599,13 @@
         <v>0.221180869565217</v>
       </c>
       <c r="D5" s="6">
-        <v>1.02145063157895</v>
+        <v>1.06775186956522</v>
       </c>
       <c r="E5" s="6">
         <v>0.395652173913044</v>
       </c>
       <c r="F5" s="6">
-        <v>0.126428571428571</v>
+        <v>0.164516129032258</v>
       </c>
       <c r="G5" s="1">
         <v>53.8</v>
@@ -1670,13 +1661,13 @@
         <v>0.2495495</v>
       </c>
       <c r="D6" s="6">
-        <v>1.06775186956522</v>
+        <v>1.10521476190476</v>
       </c>
       <c r="E6" s="6">
         <v>0.445</v>
       </c>
       <c r="F6" s="6">
-        <v>0.164516129032258</v>
+        <v>0.198333333333333</v>
       </c>
       <c r="G6" s="1">
         <v>56.7</v>
@@ -1732,13 +1723,13 @@
         <v>0.315205789473684</v>
       </c>
       <c r="D7" s="6">
-        <v>1.10521476190476</v>
+        <v>1.05001915</v>
       </c>
       <c r="E7" s="6">
         <v>0.371</v>
       </c>
       <c r="F7" s="6">
-        <v>0.198333333333333</v>
+        <v>0.200645161290323</v>
       </c>
       <c r="G7" s="1">
         <v>57.7</v>
@@ -1794,13 +1785,13 @@
         <v>0.329121363636364</v>
       </c>
       <c r="D8" s="6">
-        <v>1.05001915</v>
+        <v>1.01592672727273</v>
       </c>
       <c r="E8" s="6">
         <v>0.318181818181818</v>
       </c>
       <c r="F8" s="6">
-        <v>0.200645161290323</v>
+        <v>0.176666666666667</v>
       </c>
       <c r="G8" s="1">
         <v>57</v>
@@ -1856,13 +1847,13 @@
         <v>0.314830909090909</v>
       </c>
       <c r="D9" s="6">
-        <v>1.01592672727273</v>
+        <v>1.02222423809524</v>
       </c>
       <c r="E9" s="6">
         <v>0.291428571428571</v>
       </c>
       <c r="F9" s="6">
-        <v>0.176666666666667</v>
+        <v>0.18258064516129</v>
       </c>
       <c r="G9" s="1">
         <v>55.4</v>
@@ -1918,13 +1909,13 @@
         <v>0.265995238095238</v>
       </c>
       <c r="D10" s="6">
-        <v>1.02222423809524</v>
+        <v>1.03503963636364</v>
       </c>
       <c r="E10" s="6">
         <v>0.259090909090909</v>
       </c>
       <c r="F10" s="6">
-        <v>0.18258064516129</v>
+        <v>0.189354838709678</v>
       </c>
       <c r="G10" s="1">
         <v>54.6</v>
@@ -1980,13 +1971,13 @@
         <v>0.251059090909091</v>
       </c>
       <c r="D11" s="6">
-        <v>1.03503963636364</v>
+        <v>1.05980661904762</v>
       </c>
       <c r="E11" s="6">
         <v>0.256666666666667</v>
       </c>
       <c r="F11" s="6">
-        <v>0.189354838709678</v>
+        <v>0.194666666666667</v>
       </c>
       <c r="G11" s="1">
         <v>53.9</v>
@@ -2042,13 +2033,13 @@
         <v>0.25051619047619</v>
       </c>
       <c r="D12" s="6">
-        <v>1.05980661904762</v>
+        <v>1.10444852380952</v>
       </c>
       <c r="E12" s="6">
         <v>0.228</v>
       </c>
       <c r="F12" s="6">
-        <v>0.194666666666667</v>
+        <v>0.191290322580645</v>
       </c>
       <c r="G12" s="1">
         <v>52.6</v>
@@ -2104,13 +2095,13 @@
         <v>0.249138181818182</v>
       </c>
       <c r="D13" s="6">
-        <v>1.10444852380952</v>
+        <v>1.11983128571429</v>
       </c>
       <c r="E13" s="6">
         <v>0.252</v>
       </c>
       <c r="F13" s="6">
-        <v>0.191290322580645</v>
+        <v>0.194333333333333</v>
       </c>
       <c r="G13" s="1">
         <v>54.8</v>
@@ -2166,13 +2157,13 @@
         <v>0.25412380952381</v>
       </c>
       <c r="D14" s="6">
-        <v>1.11983128571429</v>
+        <v>1.14652572727273</v>
       </c>
       <c r="E14" s="6">
         <v>0.294090909090909</v>
       </c>
       <c r="F14" s="6">
-        <v>0.194333333333333</v>
+        <v>0.183225806451613</v>
       </c>
       <c r="G14" s="1">
         <v>54.5</v>
@@ -2228,13 +2219,13 @@
         <v>0.254065</v>
       </c>
       <c r="D15" s="6">
-        <v>1.14652572727273</v>
+        <v>1.18023705</v>
       </c>
       <c r="E15" s="6">
         <v>0.2735</v>
       </c>
       <c r="F15" s="6">
-        <v>0.183225806451613</v>
+        <v>0.168387096774194</v>
       </c>
       <c r="G15" s="1">
         <v>57</v>
@@ -2290,13 +2281,13 @@
         <v>0.25165</v>
       </c>
       <c r="D16" s="6">
-        <v>1.18023705</v>
+        <v>1.21900005263158</v>
       </c>
       <c r="E16" s="6">
         <v>0.286315789473684</v>
       </c>
       <c r="F16" s="6">
-        <v>0.168387096774194</v>
+        <v>0.156785714285714</v>
       </c>
       <c r="G16" s="1">
         <v>58.3</v>
@@ -2352,13 +2343,13 @@
         <v>0.238897826086957</v>
       </c>
       <c r="D17" s="6">
-        <v>1.21900005263158</v>
+        <v>1.20814765217391</v>
       </c>
       <c r="E17" s="6">
         <v>0.259130434782609</v>
       </c>
       <c r="F17" s="6">
-        <v>0.156785714285714</v>
+        <v>0.138709677419355</v>
       </c>
       <c r="G17" s="1">
         <v>59.2</v>
@@ -2414,13 +2405,13 @@
         <v>0.192377777777778</v>
       </c>
       <c r="D18" s="6">
-        <v>1.20814765217391</v>
+        <v>1.24348765</v>
       </c>
       <c r="E18" s="6">
         <v>0.2465</v>
       </c>
       <c r="F18" s="6">
-        <v>0.138709677419355</v>
+        <v>0.098</v>
       </c>
       <c r="G18" s="1">
         <v>54.5</v>
@@ -2476,13 +2467,13 @@
         <v>0.1678725</v>
       </c>
       <c r="D19" s="6">
-        <v>1.24348765</v>
+        <v>1.25799928571429</v>
       </c>
       <c r="E19" s="6">
         <v>0.188095238095238</v>
       </c>
       <c r="F19" s="6">
-        <v>0.098</v>
+        <v>0.0938709677419355</v>
       </c>
       <c r="G19" s="1">
         <v>51.8</v>
@@ -2538,13 +2529,13 @@
         <v>0.161543181818182</v>
       </c>
       <c r="D20" s="6">
-        <v>1.25799928571429</v>
+        <v>1.20973095454545</v>
       </c>
       <c r="E20" s="6">
         <v>0.180909090909091</v>
       </c>
       <c r="F20" s="6">
-        <v>0.0938709677419355</v>
+        <v>0.092</v>
       </c>
       <c r="G20" s="1">
         <v>52.7</v>
@@ -2600,13 +2591,13 @@
         <v>0.159885714285714</v>
       </c>
       <c r="D21" s="6">
-        <v>1.20973095454545</v>
+        <v>1.25123255</v>
       </c>
       <c r="E21" s="6">
         <v>0.185</v>
       </c>
       <c r="F21" s="6">
-        <v>0.092</v>
+        <v>0.0709677419354839</v>
       </c>
       <c r="G21" s="1">
         <v>52.3</v>
@@ -2662,13 +2653,13 @@
         <v>0.180386818181818</v>
       </c>
       <c r="D22" s="6">
-        <v>1.25123255</v>
+        <v>1.1326617826087</v>
       </c>
       <c r="E22" s="6">
         <v>0.114782608695652</v>
       </c>
       <c r="F22" s="6">
-        <v>0.0709677419354839</v>
+        <v>0.0958064516129032</v>
       </c>
       <c r="G22" s="1">
         <v>52.5</v>
@@ -2724,13 +2715,13 @@
         <v>0.1884</v>
       </c>
       <c r="D23" s="6">
-        <v>1.1326617826087</v>
+        <v>1.11754538095238</v>
       </c>
       <c r="E23" s="6">
         <v>0.104761904761905</v>
       </c>
       <c r="F23" s="6">
-        <v>0.0958064516129032</v>
+        <v>0.084</v>
       </c>
       <c r="G23" s="1">
         <v>51.5</v>
@@ -2786,13 +2777,13 @@
         <v>0.190740952380952</v>
       </c>
       <c r="D24" s="6">
-        <v>1.11754538095238</v>
+        <v>1.1515930952381</v>
       </c>
       <c r="E24" s="6">
         <v>0.1145</v>
       </c>
       <c r="F24" s="6">
-        <v>0.084</v>
+        <v>0.0706451612903226</v>
       </c>
       <c r="G24" s="1">
         <v>52</v>
@@ -2848,13 +2839,13 @@
         <v>0.192448636363636</v>
       </c>
       <c r="D25" s="6">
-        <v>1.1515930952381</v>
+        <v>1.18043328571429</v>
       </c>
       <c r="E25" s="6">
         <v>0.112</v>
       </c>
       <c r="F25" s="6">
-        <v>0.0706451612903226</v>
+        <v>0.081</v>
       </c>
       <c r="G25" s="1">
         <v>51.3</v>
@@ -2910,13 +2901,13 @@
         <v>0.2029985</v>
       </c>
       <c r="D26" s="6">
-        <v>1.18043328571429</v>
+        <v>1.20756828571429</v>
       </c>
       <c r="E26" s="6">
         <v>0.115238095238095</v>
       </c>
       <c r="F26" s="6">
-        <v>0.081</v>
+        <v>0.0716129032258065</v>
       </c>
       <c r="G26" s="1">
         <v>52</v>
@@ -2972,13 +2963,13 @@
         <v>0.20142380952381</v>
       </c>
       <c r="D27" s="6">
-        <v>1.20756828571429</v>
+        <v>1.2550892</v>
       </c>
       <c r="E27" s="6">
         <v>0.115</v>
       </c>
       <c r="F27" s="6">
-        <v>0.0716129032258065</v>
+        <v>0.0819354838709677</v>
       </c>
       <c r="G27" s="1">
         <v>52.7</v>
@@ -3034,13 +3025,13 @@
         <v>0.191461904761905</v>
       </c>
       <c r="D28" s="6">
-        <v>1.2550892</v>
+        <v>1.28890495</v>
       </c>
       <c r="E28" s="6">
         <v>0.161</v>
       </c>
       <c r="F28" s="6">
-        <v>0.0819354838709677</v>
+        <v>0.103793103448276</v>
       </c>
       <c r="G28" s="1">
         <v>54.5</v>
@@ -3096,13 +3087,13 @@
         <v>0.189340909090909</v>
       </c>
       <c r="D29" s="6">
-        <v>1.28890495</v>
+        <v>1.3079465</v>
       </c>
       <c r="E29" s="6">
         <v>0.19</v>
       </c>
       <c r="F29" s="6">
-        <v>0.103793103448276</v>
+        <v>0.126774193548387</v>
       </c>
       <c r="G29" s="1">
         <v>55.4</v>
@@ -3158,13 +3149,13 @@
         <v>0.189805263157895</v>
       </c>
       <c r="D30" s="6">
-        <v>1.3079465</v>
+        <v>1.3030754</v>
       </c>
       <c r="E30" s="6">
         <v>0.178571428571429</v>
       </c>
       <c r="F30" s="6">
-        <v>0.126774193548387</v>
+        <v>0.139333333333333</v>
       </c>
       <c r="G30" s="1">
         <v>54.4</v>
@@ -3220,13 +3211,13 @@
         <v>0.190531818181818</v>
       </c>
       <c r="D31" s="6">
-        <v>1.3030754</v>
+        <v>1.27210845454545</v>
       </c>
       <c r="E31" s="6">
         <v>0.191818181818182</v>
       </c>
       <c r="F31" s="6">
-        <v>0.139333333333333</v>
+        <v>0.155806451612903</v>
       </c>
       <c r="G31" s="1">
         <v>52.3</v>
@@ -3282,13 +3273,13 @@
         <v>0.194647368421053</v>
       </c>
       <c r="D32" s="6">
-        <v>1.27210845454545</v>
+        <v>1.25449047619048</v>
       </c>
       <c r="E32" s="6">
         <v>0.189047619047619</v>
       </c>
       <c r="F32" s="6">
-        <v>0.155806451612903</v>
+        <v>0.161666666666667</v>
       </c>
       <c r="G32" s="1">
         <v>52.1</v>
@@ -3344,13 +3335,13 @@
         <v>0.198736363636364</v>
       </c>
       <c r="D33" s="6">
-        <v>1.25449047619048</v>
+        <v>1.28141019047619</v>
       </c>
       <c r="E33" s="6">
         <v>0.185714285714286</v>
       </c>
       <c r="F33" s="6">
-        <v>0.161666666666667</v>
+        <v>0.156451612903226</v>
       </c>
       <c r="G33" s="1">
         <v>50.3</v>
@@ -3406,13 +3397,13 @@
         <v>0.187454545454545</v>
       </c>
       <c r="D34" s="6">
-        <v>1.28141019047619</v>
+        <v>1.31349026086957</v>
       </c>
       <c r="E34" s="6">
         <v>0.183478260869565</v>
       </c>
       <c r="F34" s="6">
-        <v>0.156451612903226</v>
+        <v>0.132258064516129</v>
       </c>
       <c r="G34" s="1">
         <v>51.7</v>
@@ -3468,13 +3459,13 @@
         <v>0.183625</v>
       </c>
       <c r="D35" s="6">
-        <v>1.31349026086957</v>
+        <v>1.34184984210526</v>
       </c>
       <c r="E35" s="6">
         <v>0.175789473684211</v>
       </c>
       <c r="F35" s="6">
-        <v>0.132258064516129</v>
+        <v>0.144333333333333</v>
       </c>
       <c r="G35" s="1">
         <v>50.9</v>
@@ -3530,13 +3521,13 @@
         <v>0.179552173913043</v>
       </c>
       <c r="D36" s="6">
-        <v>1.34184984210526</v>
+        <v>1.33806452380952</v>
       </c>
       <c r="E36" s="6">
         <v>0.17952380952381</v>
       </c>
       <c r="F36" s="6">
-        <v>0.144333333333333</v>
+        <v>0.158387096774194</v>
       </c>
       <c r="G36" s="1">
         <v>52.4</v>
@@ -3592,13 +3583,13 @@
         <v>0.180609090909091</v>
       </c>
       <c r="D37" s="6">
-        <v>1.33806452380952</v>
+        <v>1.28964423809524</v>
       </c>
       <c r="E37" s="6">
         <v>0.1785</v>
       </c>
       <c r="F37" s="6">
-        <v>0.158387096774194</v>
+        <v>0.160666666666667</v>
       </c>
       <c r="G37" s="1">
         <v>51</v>
@@ -3654,13 +3645,13 @@
         <v>0.187515789473684</v>
       </c>
       <c r="D38" s="6">
-        <v>1.28964423809524</v>
+        <v>1.31441825</v>
       </c>
       <c r="E38" s="6">
         <v>0.1585</v>
       </c>
       <c r="F38" s="6">
-        <v>0.160666666666667</v>
+        <v>0.164516129032258</v>
       </c>
       <c r="G38" s="1">
         <v>53.6</v>
@@ -3716,13 +3707,13 @@
         <v>0.179472727272727</v>
       </c>
       <c r="D39" s="6">
-        <v>1.31441825</v>
+        <v>1.36153228571429</v>
       </c>
       <c r="E39" s="6">
         <v>0.145238095238095</v>
       </c>
       <c r="F39" s="6">
-        <v>0.164516129032258</v>
+        <v>0.14258064516129</v>
       </c>
       <c r="G39" s="1">
         <v>53.7</v>
@@ -3778,13 +3769,13 @@
         <v>0.17315</v>
       </c>
       <c r="D40" s="6">
-        <v>1.36153228571429</v>
+        <v>1.396733</v>
       </c>
       <c r="E40" s="6">
         <v>0.157368421052632</v>
       </c>
       <c r="F40" s="6">
-        <v>0.14258064516129</v>
+        <v>0.145</v>
       </c>
       <c r="G40" s="1">
         <v>53.2</v>
@@ -3840,13 +3831,13 @@
         <v>0.1731</v>
       </c>
       <c r="D41" s="6">
-        <v>1.396733</v>
+        <v>1.4418258</v>
       </c>
       <c r="E41" s="6">
         <v>0.1475</v>
       </c>
       <c r="F41" s="6">
-        <v>0.145</v>
+        <v>0.143548387096774</v>
       </c>
       <c r="G41" s="1">
         <v>52.9</v>
@@ -3902,13 +3893,13 @@
         <v>0.172104761904762</v>
       </c>
       <c r="D42" s="6">
-        <v>1.4418258</v>
+        <v>1.46759090909091</v>
       </c>
       <c r="E42" s="6">
         <v>0.124545454545455</v>
       </c>
       <c r="F42" s="6">
-        <v>0.143548387096774</v>
+        <v>0.145</v>
       </c>
       <c r="G42" s="1">
         <v>53</v>
@@ -3964,13 +3955,13 @@
         <v>0.163838095238095</v>
       </c>
       <c r="D43" s="6">
-        <v>1.46759090909091</v>
+        <v>1.51721804545455</v>
       </c>
       <c r="E43" s="6">
         <v>0.118636363636364</v>
       </c>
       <c r="F43" s="6">
-        <v>0.145</v>
+        <v>0.109032258064516</v>
       </c>
       <c r="G43" s="1">
         <v>51.9</v>
@@ -4026,13 +4017,13 @@
         <v>0.159646</v>
       </c>
       <c r="D44" s="6">
-        <v>1.51721804545455</v>
+        <v>1.50357545</v>
       </c>
       <c r="E44" s="6">
         <v>0.142</v>
       </c>
       <c r="F44" s="6">
-        <v>0.109032258064516</v>
+        <v>0.0936666666666667</v>
       </c>
       <c r="G44" s="1">
         <v>52.9</v>
@@ -4088,13 +4079,13 @@
         <v>0.156116956521739</v>
       </c>
       <c r="D45" s="6">
-        <v>1.50357545</v>
+        <v>1.53902113636364</v>
       </c>
       <c r="E45" s="6">
         <v>0.121818181818182</v>
       </c>
       <c r="F45" s="6">
-        <v>0.0936666666666667</v>
+        <v>0.0925806451612903</v>
       </c>
       <c r="G45" s="1">
         <v>51.2</v>
@@ -4150,13 +4141,13 @@
         <v>0.149314285714286</v>
       </c>
       <c r="D46" s="6">
-        <v>1.53902113636364</v>
+        <v>1.51953477272727</v>
       </c>
       <c r="E46" s="6">
         <v>0.126818181818182</v>
       </c>
       <c r="F46" s="6">
-        <v>0.0925806451612903</v>
+        <v>0.0829032258064516</v>
       </c>
       <c r="G46" s="1">
         <v>54</v>
@@ -4212,13 +4203,13 @@
         <v>0.143232380952381</v>
       </c>
       <c r="D47" s="6">
-        <v>1.51953477272727</v>
+        <v>1.5269841</v>
       </c>
       <c r="E47" s="6">
         <v>0.1185</v>
       </c>
       <c r="F47" s="6">
-        <v>0.0829032258064516</v>
+        <v>0.08</v>
       </c>
       <c r="G47" s="1">
         <v>55.1</v>
@@ -4274,13 +4265,13 @@
         <v>0.136682608695652</v>
       </c>
       <c r="D48" s="6">
-        <v>1.5269841</v>
+        <v>1.52892913043478</v>
       </c>
       <c r="E48" s="6">
         <v>0.121363636363636</v>
       </c>
       <c r="F48" s="6">
-        <v>0.08</v>
+        <v>0.0870967741935484</v>
       </c>
       <c r="G48" s="1">
         <v>53.6</v>
@@ -4336,13 +4327,13 @@
         <v>0.129190476190476</v>
       </c>
       <c r="D49" s="6">
-        <v>1.52892913043478</v>
+        <v>1.5870828</v>
       </c>
       <c r="E49" s="6">
         <v>0.121578947368421</v>
       </c>
       <c r="F49" s="6">
-        <v>0.0870967741935484</v>
+        <v>0.0843333333333333</v>
       </c>
       <c r="G49" s="1">
         <v>52.1</v>
@@ -4398,13 +4389,13 @@
         <v>0.1273025</v>
       </c>
       <c r="D50" s="6">
-        <v>1.5870828</v>
+        <v>1.60957747619048</v>
       </c>
       <c r="E50" s="6">
         <v>0.132857142857143</v>
       </c>
       <c r="F50" s="6">
-        <v>0.0843333333333333</v>
+        <v>0.0851612903225807</v>
       </c>
       <c r="G50" s="1">
         <v>54.2</v>
@@ -4460,13 +4451,13 @@
         <v>0.121993181818182</v>
       </c>
       <c r="D51" s="6">
-        <v>1.60957747619048</v>
+        <v>1.62437223809524</v>
       </c>
       <c r="E51" s="6">
         <v>0.116190476190476</v>
       </c>
       <c r="F51" s="6">
-        <v>0.0851612903225807</v>
+        <v>0.0716129032258065</v>
       </c>
       <c r="G51" s="1">
         <v>53.8</v>
@@ -4522,13 +4513,13 @@
         <v>0.1193925</v>
       </c>
       <c r="D52" s="6">
-        <v>1.62437223809524</v>
+        <v>1.59584431578947</v>
       </c>
       <c r="E52" s="6">
         <v>0.116842105263158</v>
       </c>
       <c r="F52" s="6">
-        <v>0.0716129032258065</v>
+        <v>0.0664285714285715</v>
       </c>
       <c r="G52" s="1">
         <v>54</v>
@@ -4584,13 +4575,13 @@
         <v>0.120745238095238</v>
       </c>
       <c r="D53" s="6">
-        <v>1.59584431578947</v>
+        <v>1.63086276190476</v>
       </c>
       <c r="E53" s="6">
         <v>0.128095238095238</v>
       </c>
       <c r="F53" s="6">
-        <v>0.0664285714285715</v>
+        <v>0.0780645161290323</v>
       </c>
       <c r="G53" s="1">
         <v>53.1</v>
@@ -4646,13 +4637,13 @@
         <v>0.120115</v>
       </c>
       <c r="D54" s="6">
-        <v>1.63086276190476</v>
+        <v>1.63995023809524</v>
       </c>
       <c r="E54" s="6">
         <v>0.107619047619048</v>
       </c>
       <c r="F54" s="6">
-        <v>0.0780645161290323</v>
+        <v>0.0903333333333333</v>
       </c>
       <c r="G54" s="1">
         <v>53.5</v>
@@ -4708,13 +4699,13 @@
         <v>0.1198375</v>
       </c>
       <c r="D55" s="6">
-        <v>1.63995023809524</v>
+        <v>1.65672547619048</v>
       </c>
       <c r="E55" s="6">
         <v>0.0966666666666667</v>
       </c>
       <c r="F55" s="6">
-        <v>0.0903333333333333</v>
+        <v>0.0870967741935484</v>
       </c>
       <c r="G55" s="1">
         <v>52.8</v>
@@ -4770,13 +4761,13 @@
         <v>0.122414285714286</v>
       </c>
       <c r="D56" s="6">
-        <v>1.65672547619048</v>
+        <v>1.68437547619048</v>
       </c>
       <c r="E56" s="6">
         <v>0.104761904761905</v>
       </c>
       <c r="F56" s="6">
-        <v>0.0870967741935484</v>
+        <v>0.0956666666666667</v>
       </c>
       <c r="G56" s="1">
         <v>54.2</v>
@@ -4832,13 +4823,13 @@
         <v>0.12270652173913</v>
       </c>
       <c r="D57" s="6">
-        <v>1.68437547619048</v>
+        <v>1.69882640909091</v>
       </c>
       <c r="E57" s="6">
         <v>0.111363636363636</v>
       </c>
       <c r="F57" s="6">
-        <v>0.0956666666666667</v>
+        <v>0.0909677419354838</v>
       </c>
       <c r="G57" s="1">
         <v>55.4</v>
@@ -4894,13 +4885,13 @@
         <v>0.121725</v>
       </c>
       <c r="D58" s="6">
-        <v>1.69882640909091</v>
+        <v>1.67751542857143</v>
       </c>
       <c r="E58" s="6">
         <v>0.107142857142857</v>
       </c>
       <c r="F58" s="6">
-        <v>0.0909677419354838</v>
+        <v>0.0880645161290322</v>
       </c>
       <c r="G58" s="1">
         <v>55.5</v>
@@ -4956,13 +4947,13 @@
         <v>0.120870454545455</v>
       </c>
       <c r="D59" s="6">
-        <v>1.67751542857143</v>
+        <v>1.70981266666667</v>
       </c>
       <c r="E59" s="6">
         <v>0.10952380952381</v>
       </c>
       <c r="F59" s="6">
-        <v>0.0880645161290322</v>
+        <v>0.0883333333333333</v>
       </c>
       <c r="G59" s="1">
         <v>55.1</v>
@@ -5018,13 +5009,13 @@
         <v>0.119532608695652</v>
       </c>
       <c r="D60" s="6">
-        <v>1.70981266666667</v>
+        <v>1.67018704347826</v>
       </c>
       <c r="E60" s="6">
         <v>0.104545454545455</v>
       </c>
       <c r="F60" s="6">
-        <v>0.0883333333333333</v>
+        <v>0.0890322580645161</v>
       </c>
       <c r="G60" s="1">
         <v>54.8</v>
@@ -5080,13 +5071,13 @@
         <v>0.122225</v>
       </c>
       <c r="D61" s="6">
-        <v>1.67018704347826</v>
+        <v>1.76489773684211</v>
       </c>
       <c r="E61" s="6">
         <v>0.134444444444444</v>
       </c>
       <c r="F61" s="6">
-        <v>0.0890322580645161</v>
+        <v>0.092</v>
       </c>
       <c r="G61" s="1">
         <v>53.5</v>
@@ -5142,13 +5133,13 @@
         <v>0.133080952380952</v>
       </c>
       <c r="D62" s="6">
-        <v>1.76489773684211</v>
+        <v>1.77542404545455</v>
       </c>
       <c r="E62" s="6">
         <v>0.214545454545455</v>
       </c>
       <c r="F62" s="6">
-        <v>0.092</v>
+        <v>0.12258064516129</v>
       </c>
       <c r="G62" s="1">
         <v>53.1</v>
@@ -5204,13 +5195,13 @@
         <v>0.134978571428571</v>
       </c>
       <c r="D63" s="6">
-        <v>1.77542404545455</v>
+        <v>1.7542255</v>
       </c>
       <c r="E63" s="6">
         <v>0.1955</v>
       </c>
       <c r="F63" s="6">
-        <v>0.12258064516129</v>
+        <v>0.114838709677419</v>
       </c>
       <c r="G63" s="1">
         <v>52.4</v>
@@ -5266,13 +5257,13 @@
         <v>0.1376425</v>
       </c>
       <c r="D64" s="6">
-        <v>1.7542255</v>
+        <v>1.79454121052632</v>
       </c>
       <c r="E64" s="6">
         <v>0.224210526315789</v>
       </c>
       <c r="F64" s="6">
-        <v>0.114838709677419</v>
+        <v>0.110714285714286</v>
       </c>
       <c r="G64" s="1">
         <v>53</v>
@@ -5328,13 +5319,13 @@
         <v>0.140229545454545</v>
       </c>
       <c r="D65" s="6">
-        <v>1.79454121052632</v>
+        <v>1.7931745</v>
       </c>
       <c r="E65" s="6">
         <v>0.253636363636364</v>
       </c>
       <c r="F65" s="6">
-        <v>0.110714285714286</v>
+        <v>0.112903225806452</v>
       </c>
       <c r="G65" s="1">
         <v>53.9</v>
@@ -5390,13 +5381,13 @@
         <v>0.1460525</v>
       </c>
       <c r="D66" s="6">
-        <v>1.7931745</v>
+        <v>1.79705133333333</v>
       </c>
       <c r="E66" s="6">
         <v>0.233636363636364</v>
       </c>
       <c r="F66" s="6">
-        <v>0.112903225806452</v>
+        <v>0.124666666666667</v>
       </c>
       <c r="G66" s="1">
         <v>54.8</v>
@@ -5452,13 +5443,13 @@
         <v>0.14795</v>
       </c>
       <c r="D67" s="6">
-        <v>1.79705133333333</v>
+        <v>1.8124713</v>
       </c>
       <c r="E67" s="6">
         <v>0.241</v>
       </c>
       <c r="F67" s="6">
-        <v>0.124666666666667</v>
+        <v>0.123225806451613</v>
       </c>
       <c r="G67" s="1">
         <v>54.2</v>
@@ -5514,13 +5505,13 @@
         <v>0.146815909090909</v>
       </c>
       <c r="D68" s="6">
-        <v>1.8124713</v>
+        <v>1.79272190909091</v>
       </c>
       <c r="E68" s="6">
         <v>0.275454545454546</v>
       </c>
       <c r="F68" s="6">
-        <v>0.123225806451613</v>
+        <v>0.129</v>
       </c>
       <c r="G68" s="1">
         <v>53.6</v>
@@ -5576,13 +5567,13 @@
         <v>0.148878260869565</v>
       </c>
       <c r="D69" s="6">
-        <v>1.79272190909091</v>
+        <v>1.77950168181818</v>
       </c>
       <c r="E69" s="6">
         <v>0.296818181818182</v>
       </c>
       <c r="F69" s="6">
-        <v>0.129</v>
+        <v>0.130322580645161</v>
       </c>
       <c r="G69" s="1">
         <v>53.1</v>
@@ -5638,13 +5629,13 @@
         <v>0.151965</v>
       </c>
       <c r="D70" s="6">
-        <v>1.77950168181818</v>
+        <v>1.70615933333333</v>
       </c>
       <c r="E70" s="6">
         <v>0.375714285714286</v>
       </c>
       <c r="F70" s="6">
-        <v>0.130322580645161</v>
+        <v>0.137096774193548</v>
       </c>
       <c r="G70" s="1">
         <v>53.7</v>
@@ -5700,13 +5691,13 @@
         <v>0.156613636363636</v>
       </c>
       <c r="D71" s="6">
-        <v>1.70615933333333</v>
+        <v>1.633995</v>
       </c>
       <c r="E71" s="6">
         <v>0.373333333333333</v>
       </c>
       <c r="F71" s="6">
-        <v>0.137096774193548</v>
+        <v>0.136</v>
       </c>
       <c r="G71" s="1">
         <v>53.9</v>
@@ -5762,13 +5753,13 @@
         <v>0.155313636363636</v>
       </c>
       <c r="D72" s="6">
-        <v>1.633995</v>
+        <v>1.71822822727273</v>
       </c>
       <c r="E72" s="6">
         <v>0.263333333333333</v>
       </c>
       <c r="F72" s="6">
-        <v>0.136</v>
+        <v>0.123548387096774</v>
       </c>
       <c r="G72" s="1">
         <v>52.8</v>
@@ -5824,13 +5815,13 @@
         <v>0.155921428571429</v>
       </c>
       <c r="D73" s="6">
-        <v>1.71822822727273</v>
+        <v>1.77237685</v>
       </c>
       <c r="E73" s="6">
         <v>0.476842105263158</v>
       </c>
       <c r="F73" s="6">
-        <v>0.123548387096774</v>
+        <v>0.117666666666667</v>
       </c>
       <c r="G73" s="1">
         <v>53.1</v>
@@ -5886,13 +5877,13 @@
         <v>0.289352380952381</v>
       </c>
       <c r="D74" s="6">
-        <v>1.77237685</v>
+        <v>1.7542855</v>
       </c>
       <c r="E74" s="6">
         <v>0.653636363636364</v>
       </c>
       <c r="F74" s="6">
-        <v>0.117666666666667</v>
+        <v>0.240645161290323</v>
       </c>
       <c r="G74" s="1">
         <v>53.6</v>

--- a/中期_简单回归/data/09-16.xlsx
+++ b/中期_简单回归/data/09-16.xlsx
@@ -300,12 +300,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -355,9 +355,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,77 +463,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,46 +485,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,13 +532,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,37 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,49 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,37 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,22 +727,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,18 +750,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -798,6 +772,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -814,9 +812,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,133 +838,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1422,7 +1422,7 @@
         <v>0.118064516129032</v>
       </c>
       <c r="G2" s="1">
-        <v>51.7</v>
+        <v>53.1</v>
       </c>
       <c r="H2" s="1">
         <v>-15.74</v>
@@ -1484,7 +1484,7 @@
         <v>0.11</v>
       </c>
       <c r="G3" s="1">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="H3" s="1">
         <v>-11.18</v>
@@ -1546,7 +1546,7 @@
         <v>0.126428571428571</v>
       </c>
       <c r="G4" s="1">
-        <v>53.2</v>
+        <v>53.8</v>
       </c>
       <c r="H4" s="1">
         <v>85.96</v>
@@ -1608,7 +1608,7 @@
         <v>0.164516129032258</v>
       </c>
       <c r="G5" s="1">
-        <v>53.8</v>
+        <v>56.7</v>
       </c>
       <c r="H5" s="1">
         <v>63.92</v>
@@ -1670,7 +1670,7 @@
         <v>0.198333333333333</v>
       </c>
       <c r="G6" s="1">
-        <v>56.7</v>
+        <v>57.7</v>
       </c>
       <c r="H6" s="1">
         <v>64.84</v>
@@ -1732,7 +1732,7 @@
         <v>0.200645161290323</v>
       </c>
       <c r="G7" s="1">
-        <v>57.7</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1">
         <v>60.36</v>
@@ -1794,7 +1794,7 @@
         <v>0.176666666666667</v>
       </c>
       <c r="G8" s="1">
-        <v>57</v>
+        <v>55.4</v>
       </c>
       <c r="H8" s="1">
         <v>57.66</v>
@@ -1856,7 +1856,7 @@
         <v>0.18258064516129</v>
       </c>
       <c r="G9" s="1">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="H9" s="1">
         <v>52.77</v>
@@ -1918,7 +1918,7 @@
         <v>0.189354838709678</v>
       </c>
       <c r="G10" s="1">
-        <v>54.6</v>
+        <v>53.9</v>
       </c>
       <c r="H10" s="1">
         <v>47.3</v>
@@ -1980,7 +1980,7 @@
         <v>0.194666666666667</v>
       </c>
       <c r="G11" s="1">
-        <v>53.9</v>
+        <v>52.6</v>
       </c>
       <c r="H11" s="1">
         <v>45.57</v>
@@ -2042,7 +2042,7 @@
         <v>0.191290322580645</v>
       </c>
       <c r="G12" s="1">
-        <v>52.6</v>
+        <v>54.8</v>
       </c>
       <c r="H12" s="1">
         <v>42.5</v>
@@ -2104,7 +2104,7 @@
         <v>0.194333333333333</v>
       </c>
       <c r="G13" s="1">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="H13" s="1">
         <v>40.67</v>
@@ -2166,7 +2166,7 @@
         <v>0.183225806451613</v>
       </c>
       <c r="G14" s="1">
-        <v>54.5</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1">
         <v>40.42</v>
@@ -2228,7 +2228,7 @@
         <v>0.168387096774194</v>
       </c>
       <c r="G15" s="1">
-        <v>57</v>
+        <v>58.3</v>
       </c>
       <c r="H15" s="1">
         <v>38.8</v>
@@ -2290,7 +2290,7 @@
         <v>0.156785714285714</v>
       </c>
       <c r="G16" s="1">
-        <v>58.3</v>
+        <v>59.2</v>
       </c>
       <c r="H16" s="1">
         <v>51.7</v>
@@ -2352,7 +2352,7 @@
         <v>0.138709677419355</v>
       </c>
       <c r="G17" s="1">
-        <v>59.2</v>
+        <v>54.5</v>
       </c>
       <c r="H17" s="1">
         <v>36.58</v>
@@ -2414,7 +2414,7 @@
         <v>0.098</v>
       </c>
       <c r="G18" s="1">
-        <v>54.5</v>
+        <v>51.8</v>
       </c>
       <c r="H18" s="1">
         <v>32.99</v>
@@ -2476,7 +2476,7 @@
         <v>0.0938709677419355</v>
       </c>
       <c r="G19" s="1">
-        <v>51.8</v>
+        <v>52.7</v>
       </c>
       <c r="H19" s="1">
         <v>29.86</v>
@@ -2538,7 +2538,7 @@
         <v>0.092</v>
       </c>
       <c r="G20" s="1">
-        <v>52.7</v>
+        <v>52.3</v>
       </c>
       <c r="H20" s="1">
         <v>29.56</v>
@@ -2600,7 +2600,7 @@
         <v>0.0709677419354839</v>
       </c>
       <c r="G21" s="1">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="H21" s="1">
         <v>27.7</v>
@@ -2662,7 +2662,7 @@
         <v>0.0958064516129032</v>
       </c>
       <c r="G22" s="1">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="H22" s="1">
         <v>27.15</v>
@@ -2724,7 +2724,7 @@
         <v>0.084</v>
       </c>
       <c r="G23" s="1">
-        <v>51.5</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1">
         <v>27.54</v>
@@ -2786,7 +2786,7 @@
         <v>0.0706451612903226</v>
       </c>
       <c r="G24" s="1">
-        <v>52</v>
+        <v>51.3</v>
       </c>
       <c r="H24" s="1">
         <v>26.68</v>
@@ -2848,7 +2848,7 @@
         <v>0.081</v>
       </c>
       <c r="G25" s="1">
-        <v>51.3</v>
+        <v>52</v>
       </c>
       <c r="H25" s="1">
         <v>26.86</v>
@@ -2910,7 +2910,7 @@
         <v>0.0716129032258065</v>
       </c>
       <c r="G26" s="1">
-        <v>52</v>
+        <v>52.7</v>
       </c>
       <c r="H26" s="1">
         <v>26.35</v>
@@ -2972,7 +2972,7 @@
         <v>0.0819354838709677</v>
       </c>
       <c r="G27" s="1">
-        <v>52.7</v>
+        <v>54.5</v>
       </c>
       <c r="H27" s="1">
         <v>24.87</v>
@@ -3034,7 +3034,7 @@
         <v>0.103793103448276</v>
       </c>
       <c r="G28" s="1">
-        <v>54.5</v>
+        <v>55.4</v>
       </c>
       <c r="H28" s="1">
         <v>-15.23</v>
@@ -3096,7 +3096,7 @@
         <v>0.126774193548387</v>
       </c>
       <c r="G29" s="1">
-        <v>55.4</v>
+        <v>54.4</v>
       </c>
       <c r="H29" s="1">
         <v>7.93</v>
@@ -3158,7 +3158,7 @@
         <v>0.139333333333333</v>
       </c>
       <c r="G30" s="1">
-        <v>54.4</v>
+        <v>52.3</v>
       </c>
       <c r="H30" s="1">
         <v>6.93</v>
@@ -3220,7 +3220,7 @@
         <v>0.155806451612903</v>
       </c>
       <c r="G31" s="1">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="H31" s="1">
         <v>5.14</v>
@@ -3282,7 +3282,7 @@
         <v>0.161666666666667</v>
       </c>
       <c r="G32" s="1">
-        <v>52.1</v>
+        <v>50.3</v>
       </c>
       <c r="H32" s="1">
         <v>6.78</v>
@@ -3344,7 +3344,7 @@
         <v>0.156451612903226</v>
       </c>
       <c r="G33" s="1">
-        <v>50.3</v>
+        <v>51.7</v>
       </c>
       <c r="H33" s="1">
         <v>6.66</v>
@@ -3406,7 +3406,7 @@
         <v>0.132258064516129</v>
       </c>
       <c r="G34" s="1">
-        <v>51.7</v>
+        <v>50.9</v>
       </c>
       <c r="H34" s="1">
         <v>6.35</v>
@@ -3468,7 +3468,7 @@
         <v>0.144333333333333</v>
       </c>
       <c r="G35" s="1">
-        <v>50.9</v>
+        <v>52.4</v>
       </c>
       <c r="H35" s="1">
         <v>5.13</v>
@@ -3530,7 +3530,7 @@
         <v>0.158387096774194</v>
       </c>
       <c r="G36" s="1">
-        <v>52.4</v>
+        <v>51</v>
       </c>
       <c r="H36" s="1">
         <v>4.79</v>
@@ -3592,7 +3592,7 @@
         <v>0.160666666666667</v>
       </c>
       <c r="G37" s="1">
-        <v>51</v>
+        <v>53.6</v>
       </c>
       <c r="H37" s="1">
         <v>4.55</v>
@@ -3654,7 +3654,7 @@
         <v>0.164516129032258</v>
       </c>
       <c r="G38" s="1">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="H38" s="1">
         <v>4.1</v>
@@ -3716,7 +3716,7 @@
         <v>0.14258064516129</v>
       </c>
       <c r="G39" s="1">
-        <v>53.7</v>
+        <v>53.2</v>
       </c>
       <c r="H39" s="1">
         <v>4.3</v>
@@ -3778,7 +3778,7 @@
         <v>0.145</v>
       </c>
       <c r="G40" s="1">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="H40" s="1">
         <v>29.59</v>
@@ -3840,7 +3840,7 @@
         <v>0.143548387096774</v>
       </c>
       <c r="G41" s="1">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="H41" s="1">
         <v>5.33</v>
@@ -3902,7 +3902,7 @@
         <v>0.145</v>
       </c>
       <c r="G42" s="1">
-        <v>53</v>
+        <v>51.9</v>
       </c>
       <c r="H42" s="1">
         <v>8.61</v>
@@ -3964,7 +3964,7 @@
         <v>0.109032258064516</v>
       </c>
       <c r="G43" s="1">
-        <v>51.9</v>
+        <v>52.9</v>
       </c>
       <c r="H43" s="1">
         <v>10.62</v>
@@ -4026,7 +4026,7 @@
         <v>0.0936666666666667</v>
       </c>
       <c r="G44" s="1">
-        <v>52.9</v>
+        <v>51.2</v>
       </c>
       <c r="H44" s="1">
         <v>8.16</v>
@@ -4088,7 +4088,7 @@
         <v>0.0925806451612903</v>
       </c>
       <c r="G45" s="1">
-        <v>51.2</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1">
         <v>6.66</v>
@@ -4150,7 +4150,7 @@
         <v>0.0829032258064516</v>
       </c>
       <c r="G46" s="1">
-        <v>54</v>
+        <v>55.1</v>
       </c>
       <c r="H46" s="1">
         <v>7.28</v>
@@ -4212,7 +4212,7 @@
         <v>0.08</v>
       </c>
       <c r="G47" s="1">
-        <v>55.1</v>
+        <v>53.6</v>
       </c>
       <c r="H47" s="1">
         <v>7.27</v>
@@ -4274,7 +4274,7 @@
         <v>0.0870967741935484</v>
       </c>
       <c r="G48" s="1">
-        <v>53.6</v>
+        <v>52.1</v>
       </c>
       <c r="H48" s="1">
         <v>7.3</v>
@@ -4336,7 +4336,7 @@
         <v>0.0843333333333333</v>
       </c>
       <c r="G49" s="1">
-        <v>52.1</v>
+        <v>54.2</v>
       </c>
       <c r="H49" s="1">
         <v>7.32</v>
@@ -4398,7 +4398,7 @@
         <v>0.0851612903225807</v>
       </c>
       <c r="G50" s="1">
-        <v>54.2</v>
+        <v>53.8</v>
       </c>
       <c r="H50" s="1">
         <v>7.12</v>
@@ -4460,7 +4460,7 @@
         <v>0.0716129032258065</v>
       </c>
       <c r="G51" s="1">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="H51" s="1">
         <v>7.24</v>
@@ -4522,7 +4522,7 @@
         <v>0.0664285714285715</v>
       </c>
       <c r="G52" s="1">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="H52" s="1">
         <v>9.93</v>
@@ -4584,7 +4584,7 @@
         <v>0.0780645161290323</v>
       </c>
       <c r="G53" s="1">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="H53" s="1">
         <v>9.88</v>
@@ -4646,7 +4646,7 @@
         <v>0.0903333333333333</v>
       </c>
       <c r="G54" s="1">
-        <v>53.5</v>
+        <v>52.8</v>
       </c>
       <c r="H54" s="1">
         <v>1.51</v>
@@ -4708,7 +4708,7 @@
         <v>0.0870967741935484</v>
       </c>
       <c r="G55" s="1">
-        <v>52.8</v>
+        <v>54.2</v>
       </c>
       <c r="H55" s="1">
         <v>1.3</v>
@@ -4770,7 +4770,7 @@
         <v>0.0956666666666667</v>
       </c>
       <c r="G56" s="1">
-        <v>54.2</v>
+        <v>55.4</v>
       </c>
       <c r="H56" s="1">
         <v>0.7</v>
@@ -4832,7 +4832,7 @@
         <v>0.0909677419354838</v>
       </c>
       <c r="G57" s="1">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="H57" s="1">
         <v>1.43</v>
@@ -4894,7 +4894,7 @@
         <v>0.0880645161290322</v>
       </c>
       <c r="G58" s="1">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="H58" s="1">
         <v>0.96</v>
@@ -4956,7 +4956,7 @@
         <v>0.0883333333333333</v>
       </c>
       <c r="G59" s="1">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="H59" s="1">
         <v>0.53</v>
@@ -5018,7 +5018,7 @@
         <v>0.0890322580645161</v>
       </c>
       <c r="G60" s="1">
-        <v>54.8</v>
+        <v>53.5</v>
       </c>
       <c r="H60" s="1">
         <v>1.29</v>
@@ -5080,7 +5080,7 @@
         <v>0.092</v>
       </c>
       <c r="G61" s="1">
-        <v>53.5</v>
+        <v>53.1</v>
       </c>
       <c r="H61" s="1">
         <v>1.59</v>
@@ -5142,7 +5142,7 @@
         <v>0.12258064516129</v>
       </c>
       <c r="G62" s="1">
-        <v>53.1</v>
+        <v>52.4</v>
       </c>
       <c r="H62" s="1">
         <v>0.78</v>
@@ -5204,7 +5204,7 @@
         <v>0.114838709677419</v>
       </c>
       <c r="G63" s="1">
-        <v>52.4</v>
+        <v>53</v>
       </c>
       <c r="H63" s="1">
         <v>0.47</v>
@@ -5266,7 +5266,7 @@
         <v>0.110714285714286</v>
       </c>
       <c r="G64" s="1">
-        <v>53</v>
+        <v>53.9</v>
       </c>
       <c r="H64" s="1">
         <v>-19.69</v>
@@ -5328,7 +5328,7 @@
         <v>0.112903225806452</v>
       </c>
       <c r="G65" s="1">
-        <v>53.9</v>
+        <v>54.8</v>
       </c>
       <c r="H65" s="1">
         <v>-20.08</v>
@@ -5390,7 +5390,7 @@
         <v>0.124666666666667</v>
       </c>
       <c r="G66" s="1">
-        <v>54.8</v>
+        <v>54.2</v>
       </c>
       <c r="H66" s="1">
         <v>-17.5</v>
@@ -5452,7 +5452,7 @@
         <v>0.123225806451613</v>
       </c>
       <c r="G67" s="1">
-        <v>54.2</v>
+        <v>53.6</v>
       </c>
       <c r="H67" s="1">
         <v>-17.09</v>
@@ -5514,7 +5514,7 @@
         <v>0.129</v>
       </c>
       <c r="G68" s="1">
-        <v>53.6</v>
+        <v>53.1</v>
       </c>
       <c r="H68" s="1">
         <v>-17.15</v>
@@ -5576,7 +5576,7 @@
         <v>0.130322580645161</v>
       </c>
       <c r="G69" s="1">
-        <v>53.1</v>
+        <v>53.7</v>
       </c>
       <c r="H69" s="1">
         <v>-15.48</v>
@@ -5638,7 +5638,7 @@
         <v>0.137096774193548</v>
       </c>
       <c r="G70" s="1">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
       <c r="H70" s="1">
         <v>-14.45</v>
@@ -5700,7 +5700,7 @@
         <v>0.136</v>
       </c>
       <c r="G71" s="1">
-        <v>53.9</v>
+        <v>52.8</v>
       </c>
       <c r="H71" s="1">
         <v>-14.38</v>
@@ -5762,7 +5762,7 @@
         <v>0.123548387096774</v>
       </c>
       <c r="G72" s="1">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="H72" s="1">
         <v>-15.12</v>
@@ -5824,7 +5824,7 @@
         <v>0.117666666666667</v>
       </c>
       <c r="G73" s="1">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="H73" s="1">
         <v>-15.48</v>
@@ -5886,7 +5886,7 @@
         <v>0.240645161290323</v>
       </c>
       <c r="G74" s="1">
-        <v>53.6</v>
+        <v>52.7</v>
       </c>
       <c r="H74" s="1">
         <v>-14.91</v>
